--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1852887.708359498</v>
+        <v>1957067.342810569</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>275.9289298340546</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>212.198915284449</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>109.9022384814636</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>193.2728734506701</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>54.34809064563465</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>18.88595192024711</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>80.50796942908609</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>202.4160355021291</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>188.8108690340837</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>310.4203810663437</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>85.39938018642546</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>171.9445013025475</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576191</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.92847288553011</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>186.9166231085228</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>114.9322208041655</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>41.55695577161328</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.29550035394045</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>45.6605461321774</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>39.83255574579544</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>14.1945421686265</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>218.2271298596249</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634808</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695548</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174132</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784693</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986281</v>
+        <v>97.54185816719918</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229315</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922691</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756199</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605717012</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>217.0099009525709</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>28.751880858125</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.14989839348887</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>26.12116916216337</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881263</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560554</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>13.03790159951723</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>20.72279572932659</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>118.4817021252673</v>
+        <v>120.1447214650587</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856528</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016443</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892439</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428251</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1879.829578210439</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1510.867061270028</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4364,16 +4366,16 @@
         <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2794.995066849327</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250373</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y2" t="n">
-        <v>2266.429418274561</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>496.5773008749145</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="C4" t="n">
-        <v>327.6411179470076</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D4" t="n">
-        <v>177.5244785346719</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1450.5530819752</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.425065783662</v>
+        <v>1195.868593769314</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.007895746702</v>
+        <v>906.4514237323529</v>
       </c>
       <c r="X4" t="n">
-        <v>899.0183448486844</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.2257657051542</v>
+        <v>678.4618728343355</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2102.480899540949</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C5" t="n">
-        <v>1733.518382600537</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1375.252683993787</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>989.4644313955425</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>578.478526605935</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>163.4060764509315</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2489.080739605071</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1556.870499972635</v>
       </c>
       <c r="V7" t="n">
-        <v>1441.317564751505</v>
+        <v>1302.186011766748</v>
       </c>
       <c r="W7" t="n">
-        <v>1151.900394714544</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X7" t="n">
-        <v>923.9108438165264</v>
+        <v>784.7792908317705</v>
       </c>
       <c r="Y7" t="n">
-        <v>923.9108438165264</v>
+        <v>563.9867116882403</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744046</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761603</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2364.718577705862</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>1991.252819444782</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4889,16 @@
         <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1841.032547900183</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1649.346663727009</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1649.346663727009</v>
       </c>
       <c r="U10" t="n">
-        <v>1442.016160968528</v>
+        <v>1360.243796852653</v>
       </c>
       <c r="V10" t="n">
-        <v>1187.331672762641</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="W10" t="n">
-        <v>1187.331672762641</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="X10" t="n">
-        <v>959.3421218646239</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5051,22 +5053,22 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096647</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.759432886125</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>390.8232499582181</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458823</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2242.968377633621</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2023.366912656562</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.29168600076</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.607197794873</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.190027757912</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>962.2004768598948</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.4078977163647</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5288,40 +5290,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962607</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962607</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327661</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048592</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925235</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925235</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F16" t="n">
-        <v>444.7013164925235</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>277.5052172074034</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>135.7933860496015</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603203</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947401</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741514</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704553</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806536</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630058</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075823</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468473</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400721</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277364</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277364</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021788</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756786</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996073</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.972636491141</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3158.973599365705</v>
+        <v>1030.918378293891</v>
       </c>
       <c r="C22" t="n">
-        <v>2990.037416437798</v>
+        <v>861.9821953659841</v>
       </c>
       <c r="D22" t="n">
-        <v>2839.920777025462</v>
+        <v>711.8655559536484</v>
       </c>
       <c r="E22" t="n">
-        <v>2692.007683443069</v>
+        <v>563.9524623712553</v>
       </c>
       <c r="F22" t="n">
-        <v>2545.117735945159</v>
+        <v>417.0625148733449</v>
       </c>
       <c r="G22" t="n">
-        <v>2377.921636660039</v>
+        <v>249.8664155882248</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866306</v>
+        <v>108.1545844304229</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.932614305902</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.8573876501</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>3897.172899444213</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>3607.755729407252</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>3379.766178509235</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y22" t="n">
-        <v>3158.973599365705</v>
+        <v>1212.566843124131</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756267</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021788</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258107</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602305</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396418</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396418</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536392</v>
+        <v>733.4550657171333</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257321</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133961</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310028</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330922</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.052681478299</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038376</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524077</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868275</v>
+        <v>1907.987318831768</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662388</v>
+        <v>1653.302830625881</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625427</v>
+        <v>1363.88566058892</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727409</v>
+        <v>1135.896109690903</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583879</v>
+        <v>915.103530547373</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,34 +6527,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I30" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516146</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516146</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578167</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132774</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1469.183933700594</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1179.766763663633</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615663</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334536</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673285</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667829</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694714</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740622</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>2231.588527385788</v>
       </c>
       <c r="I33" t="n">
-        <v>95.5840502527391</v>
+        <v>2233.355914590556</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>2383.00255711821</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803939</v>
+        <v>2383.00255711821</v>
       </c>
       <c r="L33" t="n">
-        <v>634.560372056552</v>
+        <v>2878.328163333969</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>3475.706650960521</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>3715.300272664236</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>4267.210002903523</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301203</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022977</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566162</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334419</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606218</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400685</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635731</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400762</v>
+        <v>2939.372134388642</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>2939.372134388642</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>2939.372134388642</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>2791.459040806249</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.68136566131</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.48526637619</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218388</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866302</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296626</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822165</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998105</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729139</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389147</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279807</v>
+        <v>4278.959462098132</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853366</v>
+        <v>4571.634917671691</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580265</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832668</v>
+        <v>4623.787448650993</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487572</v>
+        <v>4440.932614305897</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510513</v>
+        <v>4221.331149328838</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854711</v>
+        <v>3932.255922673036</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648824</v>
+        <v>3677.57143446715</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611863</v>
+        <v>3388.154264430189</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138461</v>
+        <v>3160.164713532172</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703159</v>
+        <v>2939.372134388642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,37 +6952,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3260.450525729774</v>
+        <v>983.340348461445</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801867</v>
+        <v>814.4041655335382</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.397703389532</v>
+        <v>664.2875261212024</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807138</v>
+        <v>516.3744325388093</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309228</v>
+        <v>369.4844850408989</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024108</v>
+        <v>202.2883857557788</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866306</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910815</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279809</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853367</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398595</v>
+        <v>2264.108249235171</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421537</v>
+        <v>2044.506784258112</v>
       </c>
       <c r="U37" t="n">
-        <v>4434.982778844409</v>
+        <v>1755.43155760231</v>
       </c>
       <c r="V37" t="n">
-        <v>4180.298290638522</v>
+        <v>1500.747069396423</v>
       </c>
       <c r="W37" t="n">
-        <v>3890.881120601562</v>
+        <v>1211.329899359462</v>
       </c>
       <c r="X37" t="n">
-        <v>3662.891569703544</v>
+        <v>983.340348461445</v>
       </c>
       <c r="Y37" t="n">
-        <v>3442.098990560014</v>
+        <v>983.340348461445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958744</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679675</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>483.8760050556317</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
-        <v>335.9629114732386</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>189.0729639753282</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>189.0729639753282</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267662</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369644</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261141</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7421,40 +7423,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872154</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179126</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C43" t="n">
-        <v>593.611586390006</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4949469776705</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E43" t="n">
-        <v>295.5818533952776</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F43" t="n">
-        <v>295.5818533952776</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000581</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003835</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258109</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602307</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.74706939642</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.32989935946</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614425</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179126</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,58 +7639,58 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192656</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756267</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1026.887310050511</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517213</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.2213777565</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.44677382459152</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>30.48882721876549</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>30.48882721876575</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.70888054695222</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.3199726642719</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>99.76050189075384</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>100.4621571004284</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>67.07129414993904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>7.482525529412214</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>69.70496293142865</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462241</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856573</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012187</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016448</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516686</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>35.12774237125711</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405028</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.27114962944238</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>114.1735436840605</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25564,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>127.2568112467066</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>265.8002026072644</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>47.04243616700133</v>
+        <v>45.37941682721012</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462236</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012142</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194134</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860922.6969047778</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049986</v>
-      </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830047</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830047</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073564</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551212</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685496</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26439,25 +26441,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685483</v>
+        <v>14216.75207685519</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685516</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685517</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685519</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685519</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955353.2342321937</v>
+        <v>-955353.2342321939</v>
       </c>
       <c r="C6" t="n">
         <v>373391.5114953988</v>
       </c>
       <c r="D6" t="n">
-        <v>373391.5114953993</v>
+        <v>373391.5114953991</v>
       </c>
       <c r="E6" t="n">
-        <v>124250.8760748861</v>
+        <v>124250.8760748866</v>
       </c>
       <c r="F6" t="n">
         <v>449663.3378822423</v>
       </c>
       <c r="G6" t="n">
-        <v>449663.3378822429</v>
+        <v>449663.3378822425</v>
       </c>
       <c r="H6" t="n">
-        <v>449663.3378822423</v>
+        <v>449663.3378822422</v>
       </c>
       <c r="I6" t="n">
-        <v>449663.3378822423</v>
+        <v>449663.3378822425</v>
       </c>
       <c r="J6" t="n">
-        <v>232132.1354849653</v>
+        <v>232132.135484965</v>
       </c>
       <c r="K6" t="n">
-        <v>449663.3378822423</v>
+        <v>449663.3378822425</v>
       </c>
       <c r="L6" t="n">
-        <v>449663.3378822425</v>
+        <v>449663.3378822422</v>
       </c>
       <c r="M6" t="n">
         <v>364608.3099467303</v>
       </c>
       <c r="N6" t="n">
+        <v>449663.3378822422</v>
+      </c>
+      <c r="O6" t="n">
         <v>449663.3378822424</v>
-      </c>
-      <c r="O6" t="n">
-        <v>449663.3378822423</v>
       </c>
       <c r="P6" t="n">
         <v>449663.3378822423</v>
@@ -26707,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26802,34 +26804,34 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483766</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973568</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973569</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973568</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.75411178662836</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>115.5533431856859</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>36.53172416510559</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>92.93896475494276</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>240.2596737416858</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>367.3519867358065</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>139.0409798470831</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>49.72160782169885</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>218.0651767076278</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>38.82058765106927</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.532772483621912</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>114.2673369030653</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29335,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29454,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.405402605407982e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29563,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29752,10 +29754,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.256805536100208e-12</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,16 +29802,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30174,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>6.421893366288193e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30220,22 +30222,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,22 +30276,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.330052341546565e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>8.887874563307766e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31607,7 +31609,7 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138808</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233473</v>
@@ -31619,7 +31621,7 @@
         <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987485</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576903</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31923,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145758</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32160,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32317,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968492</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32558,31 +32560,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491737</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>639.8517673857152</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>209.949944842253</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>581.3243739860832</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>198.5607970756941</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>531.8166820790238</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>373.3554713800153</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>583.1096135868581</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779082</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338195</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175684</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>302.3396059822662</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>732.4825987614918</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>437.8531046913755</v>
+        <v>248.5245325067424</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340066</v>
       </c>
       <c r="M9" t="n">
         <v>451.794267901329</v>
@@ -35267,7 +35269,7 @@
         <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
         <v>159.233896612727</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778162</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312425</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315214</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>508.5100553023819</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>71.39556506237885</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295674</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.272427001045</v>
@@ -36768,10 +36770,10 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>439.1903400640649</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>55.96455263124963</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>393.2623022991496</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>242.013759296682</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060497</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>440.9755796648398</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334638</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010514</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236318053</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394536</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>163.785226202392</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>590.3485648394735</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295367</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010455</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060458</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066252</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770453</v>
+        <v>114.5501250924122</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1957067.342810569</v>
+        <v>1953054.732796577</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.198915284449</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>96.32693285396883</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>96.50675189249552</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>193.2728734506701</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>298.7307299422358</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.88595192024711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>80.50796942908609</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
-        <v>310.4203810663437</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>51.06561173382057</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>85.39938018642546</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>186.9166231085228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.9322208041655</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.29550035394045</v>
+        <v>14.92158678357934</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417096</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>14.1945421686265</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695604</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>97.54185816719918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>217.0099009525709</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.14989839348887</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>26.12116916216337</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881263</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>20.72279572932659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.1447214650587</v>
+        <v>30.65104903283332</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
         <v>1678.62132134232</v>
@@ -4330,10 +4330,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2794.995066849327</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2442.226411579212</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2068.760653318132</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.62132134232</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678.4618728343355</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>678.4618728343355</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>528.3452334219998</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1450.5530819752</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1195.868593769314</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>906.4514237323529</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>678.4618728343355</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.4618728343355</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.833068744076</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.432908808198</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.3382468580007</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.973366846992</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1556.870499972635</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1302.186011766748</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1012.768841729788</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>784.7792908317705</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.9867116882403</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528559</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528559</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2364.718577705862</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>1991.252819444782</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.11348746897</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>118.0935424259416</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>118.0935424259416</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1841.032547900183</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1649.346663727009</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1649.346663727009</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1360.243796852653</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1105.559308646766</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1105.559308646766</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1105.559308646766</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5032,49 +5032,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>666.7308394007268</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>518.8177458183337</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856866</v>
+        <v>734.6461798835973</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577797</v>
+        <v>565.7099969556904</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159263</v>
+        <v>916.294644713837</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5758,46 +5758,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1030.918378293891</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>861.9821953659841</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>711.8655559536484</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>563.9524623712553</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>417.0625148733449</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>249.8664155882248</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>108.1545844304229</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1433.359422267661</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1212.566843124131</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803936</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921487</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187003</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.052681478299</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038376</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.06254548757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.88566058892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.896109690903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.103530547373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6530,40 +6530,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803936</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803936</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1469.183933700594</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1179.766763663633</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>951.7772127656159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111704</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615663</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334536</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673285</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667829</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694714</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740622</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385788</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590556</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.00255711821</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.00255711821</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333969</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3475.706650960521</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664236</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903523</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398591</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398591</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398591</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301203</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022977</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566162</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334419</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606218</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400685</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635731</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2939.372134388642</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2939.372134388642</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2939.372134388642</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2791.459040806249</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.68136566131</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.48526637619</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218388</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729139</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389147</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098132</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671691</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398591</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650993</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305897</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328838</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673036</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.57143446715</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430189</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532172</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388642</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.340348461445</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4041655335382</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>664.2875261212024</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3744325388093</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4844850408989</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>202.2883857557788</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853367</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580267</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235171</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258112</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.43155760231</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396423</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359462</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>983.340348461445</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.340348461445</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1052.829365488567</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>883.8931825606599</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>733.7765431483241</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>585.863449565931</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F43" t="n">
-        <v>438.9735020680206</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>2227.361618603201</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1972.677130397314</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1683.259960360354</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.270409462336</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>1234.477830318806</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239595</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-9.497645181707169e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>23.83108638657404</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>30.48882721876549</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>30.48882721876575</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.3199726642719</v>
+        <v>133.693886234633</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>67.07129414993904</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>69.70496293142865</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>35.12774237125711</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>83.27114962944238</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>114.1735436840605</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.37941682721012</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047772</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860922.6969047777</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685515</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
+        <v>14216.75207685513</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.7520768551</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="J4" t="n">
-        <v>14216.75207685519</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685516</v>
-      </c>
       <c r="L4" t="n">
-        <v>14216.75207685517</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685519</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685519</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955353.2342321939</v>
+        <v>-955353.2342321938</v>
       </c>
       <c r="C6" t="n">
-        <v>373391.5114953988</v>
+        <v>373391.5114953992</v>
       </c>
       <c r="D6" t="n">
-        <v>373391.5114953991</v>
+        <v>373391.5114953986</v>
       </c>
       <c r="E6" t="n">
-        <v>124250.8760748866</v>
+        <v>123903.4968205308</v>
       </c>
       <c r="F6" t="n">
-        <v>449663.3378822423</v>
+        <v>449315.9586278852</v>
       </c>
       <c r="G6" t="n">
-        <v>449663.3378822425</v>
+        <v>449315.9586278854</v>
       </c>
       <c r="H6" t="n">
-        <v>449663.3378822422</v>
+        <v>449315.9586278852</v>
       </c>
       <c r="I6" t="n">
-        <v>449663.3378822425</v>
+        <v>449315.9586278853</v>
       </c>
       <c r="J6" t="n">
-        <v>232132.135484965</v>
+        <v>231784.7562306077</v>
       </c>
       <c r="K6" t="n">
-        <v>449663.3378822425</v>
+        <v>449315.9586278853</v>
       </c>
       <c r="L6" t="n">
-        <v>449663.3378822422</v>
+        <v>449315.9586278853</v>
       </c>
       <c r="M6" t="n">
-        <v>364608.3099467303</v>
+        <v>364260.9306923736</v>
       </c>
       <c r="N6" t="n">
-        <v>449663.3378822422</v>
+        <v>449315.9586278854</v>
       </c>
       <c r="O6" t="n">
-        <v>449663.3378822424</v>
+        <v>449315.9586278854</v>
       </c>
       <c r="P6" t="n">
-        <v>449663.3378822423</v>
+        <v>449315.9586278855</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>115.5533431856859</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>289.9110058020848</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>92.93896475494276</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>66.54216182877173</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.3519867358065</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27827,10 +27827,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>139.0409798470831</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
-        <v>38.82058765106927</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>45.28680867601751</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.532772483621912</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.405402605407982e-12</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29754,10 +29754,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.256805536100208e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29802,16 +29802,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>6.421893366288193e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30222,22 +30222,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30276,22 +30276,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.330052341546565e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138808</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543366</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>444.22749159829</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543365</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,37 +33025,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>209.949944842253</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,37 +33262,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,25 +33499,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>373.3554713800153</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,37 +34210,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614918</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>248.5245325067424</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340066</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799776</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533515</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969394</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>302.0934576762717</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997754</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899034</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683797</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237885</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295674</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>242.013759296682</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010514</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394735</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>114.5501250924122</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953054.732796577</v>
+        <v>1954815.263099362</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>378.8302941196505</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.32693285396883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.50675189249552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>298.7307299422358</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>191.2490250244979</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>352.629790933701</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777587</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>51.06561173382057</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>141.6930519056948</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>14.92158678357934</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908706</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695604</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.55695577161152</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>30.65104903283332</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>51.36569740310337</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>2531.48361052258</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2388.243802269323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4524,16 +4524,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796418</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,25 +4567,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4609,10 +4609,10 @@
         <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>879.7731733615576</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>879.7731733615576</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336157</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>285.7963790512226</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>118.0935424259416</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>118.0935424259416</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5032,43 +5032,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>378.6527890600109</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>378.6527890600109</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798835973</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556904</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5676,49 +5676,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487563</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510504</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854702</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648815</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611854</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713837</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.294644713837</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5776,28 +5776,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D22" t="n">
         <v>402.7245934908938</v>
@@ -5904,58 +5904,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6056,16 +6056,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G31" t="n">
-        <v>194.8007783998286</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-9.497645181707169e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>23.83108638657404</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856555</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>133.693886234633</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>205.8445769401571</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695401</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>166.0397529241849</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860922.6969047772</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820628</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93403.78684820631</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820636</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93403.78684820632</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820628</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685513</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26524,46 +26524,46 @@
         <v>-955353.2342321938</v>
       </c>
       <c r="C6" t="n">
-        <v>373391.5114953992</v>
+        <v>373391.5114953993</v>
       </c>
       <c r="D6" t="n">
-        <v>373391.5114953986</v>
+        <v>373391.5114953988</v>
       </c>
       <c r="E6" t="n">
-        <v>123903.4968205308</v>
+        <v>124216.1381494514</v>
       </c>
       <c r="F6" t="n">
-        <v>449315.9586278852</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="G6" t="n">
-        <v>449315.9586278854</v>
+        <v>449628.5999568062</v>
       </c>
       <c r="H6" t="n">
-        <v>449315.9586278852</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="I6" t="n">
-        <v>449315.9586278853</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="J6" t="n">
-        <v>231784.7562306077</v>
+        <v>232097.3975595289</v>
       </c>
       <c r="K6" t="n">
-        <v>449315.9586278853</v>
+        <v>449628.5999568063</v>
       </c>
       <c r="L6" t="n">
-        <v>449315.9586278853</v>
+        <v>449628.5999568065</v>
       </c>
       <c r="M6" t="n">
-        <v>364260.9306923736</v>
+        <v>364573.5720212949</v>
       </c>
       <c r="N6" t="n">
-        <v>449315.9586278854</v>
+        <v>449628.5999568065</v>
       </c>
       <c r="O6" t="n">
-        <v>449315.9586278854</v>
+        <v>449628.5999568065</v>
       </c>
       <c r="P6" t="n">
-        <v>449315.9586278855</v>
+        <v>449628.5999568065</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.198799748375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.903547543830086</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>289.9110058020848</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>66.54216182877173</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>190.6813450477639</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>54.24625480801046</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27909,10 +27909,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923762</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>45.28680867601751</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543366</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473071</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437242</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>444.22749159829</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543365</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>35.9785935799776</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674329</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992797</v>
@@ -35734,13 +35734,13 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762717</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997754</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899034</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010421</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683797</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
